--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2693003.18007303</v>
+        <v>-2695571.380352397</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8127254646764</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3517755722035</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E11" t="n">
-        <v>269.5981115101239</v>
+        <v>355.0092538734577</v>
       </c>
       <c r="F11" t="n">
         <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546493</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885163</v>
+        <v>191.8320743435918</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412179</v>
+        <v>14.65581357412185</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0740557600978</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713307</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572494</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831331</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C13" t="n">
         <v>140.3257048998237</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194082</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>101.243718278667</v>
       </c>
       <c r="G13" t="n">
-        <v>40.1155306216847</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155166</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103393</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124317</v>
+        <v>62.01103647124323</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326377</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T13" t="n">
-        <v>192.627833077365</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068087</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2165271250238</v>
+        <v>225.2165271250239</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6018821377869</v>
       </c>
       <c r="X13" t="n">
-        <v>198.788539190233</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="14">
@@ -1610,13 +1610,13 @@
         <v>338.3517755722034</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218788</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>355.0092538734576</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
         <v>384.0006094546493</v>
@@ -1625,7 +1625,7 @@
         <v>267.6866481885163</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412182</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937168</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.996853940816</v>
+        <v>121.2401665732836</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713307</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>39.73849655684754</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3168224572494</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9108639831331</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>140.3257048998237</v>
@@ -1783,7 +1783,7 @@
         <v>117.8338987155166</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103396</v>
+        <v>69.43130421103393</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124318</v>
+        <v>62.01103647124317</v>
       </c>
       <c r="S16" t="n">
-        <v>142.8232803055881</v>
+        <v>162.8479091326377</v>
       </c>
       <c r="T16" t="n">
         <v>192.627833077365</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V16" t="n">
         <v>225.2165271250238</v>
@@ -1828,10 +1828,10 @@
         <v>259.6018821377868</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>65.25905030256519</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>267.1756840497798</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E17" t="n">
-        <v>308.034117254865</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077906</v>
+        <v>10.28708247572905</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527381</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000162</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3416858386568</v>
+        <v>312.3416858386569</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645405</v>
+        <v>105.9357273645406</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123106</v>
+        <v>93.35056828123118</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081558</v>
+        <v>74.7192202008157</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5377098291724</v>
+        <v>72.53770982917251</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553447</v>
+        <v>71.52479520553459</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163145</v>
+        <v>92.12955544163157</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692401</v>
+        <v>133.2739700787291</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244133</v>
+        <v>22.45616759244144</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265056</v>
+        <v>15.03589985265067</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8727725140451</v>
+        <v>115.8727725140452</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0679044405797</v>
+        <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2413905064312</v>
+        <v>178.2413905064313</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6267455191942</v>
+        <v>212.6267455191943</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.688400534698</v>
+        <v>144.6884005346981</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032862</v>
+        <v>223.0929609533864</v>
       </c>
       <c r="E20" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077909</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V20" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000163</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>254.1729430647679</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3416858386569</v>
@@ -2239,25 +2239,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123111</v>
+        <v>93.35056828123118</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081563</v>
+        <v>74.7192202008157</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917244</v>
+        <v>72.53770982917251</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553452</v>
+        <v>71.52479520553459</v>
       </c>
       <c r="G22" t="n">
-        <v>154.5447634234379</v>
+        <v>92.12955544163157</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692405</v>
+        <v>70.85876209692412</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244137</v>
+        <v>22.45616759244144</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0358998526506</v>
+        <v>15.03589985265067</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140452</v>
@@ -2293,16 +2293,16 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2413905064313</v>
+        <v>240.6565984882365</v>
       </c>
       <c r="W22" t="n">
         <v>212.6267455191943</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6884005346981</v>
@@ -2318,22 +2318,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E23" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077911</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V23" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3416858386569</v>
@@ -2476,25 +2476,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123111</v>
+        <v>93.35056828123118</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081563</v>
+        <v>74.7192202008157</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917244</v>
+        <v>72.53770982917251</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553452</v>
+        <v>71.52479520553459</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1295554416315</v>
+        <v>92.12955544163157</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692405</v>
+        <v>70.85876209692412</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244137</v>
+        <v>22.45616759244144</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0358998526506</v>
+        <v>15.03589985265067</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
       </c>
       <c r="T25" t="n">
-        <v>208.067904440579</v>
+        <v>208.0679044405779</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V25" t="n">
         <v>178.2413905064313</v>
@@ -2539,7 +2539,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6884005346981</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1726.772760565716</v>
+        <v>2078.195330354214</v>
       </c>
       <c r="C11" t="n">
-        <v>1726.772760565716</v>
+        <v>1736.425860079261</v>
       </c>
       <c r="D11" t="n">
-        <v>1395.700108624425</v>
+        <v>1405.353208137969</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378783866724</v>
+        <v>1046.758002205184</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5859257425748</v>
+        <v>662.9651440810349</v>
       </c>
       <c r="G11" t="n">
-        <v>351.70652225303</v>
+        <v>275.0857405914903</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725593</v>
+        <v>81.31596852725616</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3146.821120658851</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.268391548465</v>
+        <v>3146.821120658851</v>
       </c>
       <c r="V11" t="n">
-        <v>2795.398550870354</v>
+        <v>3146.821120658851</v>
       </c>
       <c r="W11" t="n">
-        <v>2795.398550870354</v>
+        <v>3146.821120658851</v>
       </c>
       <c r="X11" t="n">
-        <v>2449.125839274732</v>
+        <v>2800.54840906323</v>
       </c>
       <c r="Y11" t="n">
-        <v>2086.179553964379</v>
+        <v>2437.602123752877</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.5532549085411</v>
+        <v>813.6992045346124</v>
       </c>
       <c r="C13" t="n">
-        <v>538.810118646093</v>
+        <v>671.9560682721641</v>
       </c>
       <c r="D13" t="n">
-        <v>415.886525899216</v>
+        <v>549.0324755252871</v>
       </c>
       <c r="E13" t="n">
-        <v>415.886525899216</v>
+        <v>428.3124286083528</v>
       </c>
       <c r="F13" t="n">
-        <v>296.1896250667644</v>
+        <v>326.0460465086892</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6688870650628</v>
+        <v>185.536256548867</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6447469483793</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>138.286653915935</v>
@@ -5203,19 +5203,19 @@
         <v>368.9257419016275</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869398</v>
+        <v>712.1374453869397</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O13" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.509788383021</v>
@@ -5227,22 +5227,22 @@
         <v>1913.379540298293</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.805971533278</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.89615132438</v>
+        <v>1651.469720089395</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.404709783952</v>
+        <v>1423.978278548967</v>
       </c>
       <c r="W13" t="n">
-        <v>1229.404709783952</v>
+        <v>1161.754155177465</v>
       </c>
       <c r="X13" t="n">
-        <v>1028.608205551393</v>
+        <v>1161.754155177465</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.0086730733221</v>
+        <v>968.1546226993934</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1771.023253891606</v>
+        <v>1808.939607979389</v>
       </c>
       <c r="C14" t="n">
-        <v>1429.253783616653</v>
+        <v>1467.170137704437</v>
       </c>
       <c r="D14" t="n">
-        <v>1098.181131675361</v>
+        <v>1467.170137704437</v>
       </c>
       <c r="E14" t="n">
-        <v>739.5859257425748</v>
+        <v>1108.574931771651</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5859257425748</v>
+        <v>724.7820736475023</v>
       </c>
       <c r="G14" t="n">
-        <v>351.70652225303</v>
+        <v>336.9026701579576</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31596852725598</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801724</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723498851405</v>
+        <v>3203.141006888682</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.3860687907</v>
+        <v>3203.141006888682</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.516228112589</v>
+        <v>3203.141006888682</v>
       </c>
       <c r="W14" t="n">
-        <v>2493.376332600622</v>
+        <v>2877.565398284027</v>
       </c>
       <c r="X14" t="n">
-        <v>2493.376332600622</v>
+        <v>2531.292686688405</v>
       </c>
       <c r="Y14" t="n">
-        <v>2130.430047290269</v>
+        <v>2168.346401378053</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2623537835962</v>
+        <v>901.2623537835964</v>
       </c>
       <c r="C16" t="n">
-        <v>759.519217521148</v>
+        <v>759.5192175211482</v>
       </c>
       <c r="D16" t="n">
-        <v>636.595624774271</v>
+        <v>636.5956247742712</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8755778573366</v>
+        <v>515.8755778573368</v>
       </c>
       <c r="F16" t="n">
         <v>396.1786770248851</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6688870650627</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="H16" t="n">
         <v>136.6447469483793</v>
@@ -5437,10 +5437,10 @@
         <v>138.2866539159351</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016275</v>
+        <v>368.9257419016276</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869396</v>
+        <v>712.1374453869398</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
@@ -5452,7 +5452,7 @@
         <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.24758719369</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.509788383021</v>
@@ -5461,25 +5461,25 @@
         <v>2077.872377806008</v>
       </c>
       <c r="S16" t="n">
-        <v>1933.606438103394</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
-        <v>1739.032869338379</v>
+        <v>1718.805971533278</v>
       </c>
       <c r="U16" t="n">
-        <v>1739.032869338379</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V16" t="n">
-        <v>1511.54142779795</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W16" t="n">
-        <v>1249.317304426448</v>
+        <v>967.1805864124501</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.317304426448</v>
+        <v>901.2623537835964</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.717771948377</v>
+        <v>901.2623537835964</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1560.994624905361</v>
+        <v>1544.168889247529</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.994624905361</v>
+        <v>1249.84905192065</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371605912143</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274307</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513551</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098841</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749798</v>
+        <v>3315.214829209445</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622764747552</v>
+        <v>3183.879761207199</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.73496763492</v>
+        <v>3004.991964094568</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.314759904882</v>
+        <v>2748.571756364529</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.1887842483</v>
+        <v>2470.445780707947</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.365705600752</v>
+        <v>2171.622702060399</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.869053238472</v>
+        <v>1856.126049698119</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5583,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470828</v>
+        <v>632.1605877751695</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327079</v>
+        <v>537.8670844607946</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339043</v>
+        <v>462.3931246619908</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650433</v>
+        <v>389.1227106931296</v>
       </c>
       <c r="F19" t="n">
-        <v>253.829778180665</v>
+        <v>316.8754428087512</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689161</v>
+        <v>223.8152857970022</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030598</v>
+        <v>89.19511400030609</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5701,22 +5701,22 @@
         <v>1795.063565899911</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.893965454881</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.433778194057</v>
+        <v>1433.479442822144</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.391969601702</v>
+        <v>1253.437634229789</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782737</v>
+        <v>1038.663143806361</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937885</v>
+        <v>885.3162725218754</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637904</v>
+        <v>739.1663729918772</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1560.994624905361</v>
+        <v>1797.037868444464</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994624905361</v>
+        <v>1502.718031117585</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912143</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274307</v>
+        <v>966.2260329274316</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513556</v>
+        <v>629.882807751356</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,13 +5750,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5789,13 +5789,13 @@
         <v>2723.314759904882</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.1887842483</v>
+        <v>2723.314759904882</v>
       </c>
       <c r="X20" t="n">
-        <v>2188.448437718231</v>
+        <v>2424.491681257334</v>
       </c>
       <c r="Y20" t="n">
-        <v>1872.951785355951</v>
+        <v>2108.995028895054</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5817,13 +5817,13 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5835,28 +5835,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1605877751704</v>
+        <v>569.1149231470836</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8670844607955</v>
+        <v>474.8214198327087</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3931246619918</v>
+        <v>399.3474600339049</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1227106931307</v>
+        <v>326.0770460650438</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8754428087524</v>
+        <v>253.8297781806654</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030601</v>
+        <v>89.19511400030609</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5941,19 +5941,19 @@
         <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479442822145</v>
+        <v>1433.479442822144</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.43763422979</v>
+        <v>1190.391969601704</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782748</v>
       </c>
       <c r="X22" t="n">
-        <v>885.316272521876</v>
+        <v>822.2706078937895</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.166372991878</v>
+        <v>676.1207083637913</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.17982079233</v>
+        <v>1862.179820792331</v>
       </c>
       <c r="C23" t="n">
         <v>1567.859983465451</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472233</v>
+        <v>1284.236964472232</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0913914875205</v>
+        <v>973.09139148752</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114449</v>
+        <v>636.7481663114445</v>
       </c>
       <c r="G23" t="n">
         <v>296.3183957699732</v>
@@ -5990,19 +5990,19 @@
         <v>262.2566059512978</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9799380865974</v>
+        <v>613.8978279957355</v>
       </c>
       <c r="L23" t="n">
-        <v>1368.014151335006</v>
+        <v>1064.932041244144</v>
       </c>
       <c r="M23" t="n">
-        <v>1901.546056006931</v>
+        <v>1598.463945916069</v>
       </c>
       <c r="N23" t="n">
-        <v>2448.324873065713</v>
+        <v>2145.242762974851</v>
       </c>
       <c r="O23" t="n">
-        <v>2951.29734394505</v>
+        <v>2648.215233854188</v>
       </c>
       <c r="P23" t="n">
         <v>3361.570321301134</v>
@@ -6017,7 +6017,7 @@
         <v>3633.225760754246</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692752001</v>
+        <v>3501.890692752</v>
       </c>
       <c r="U23" t="n">
         <v>3323.002895639369</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.980281707172</v>
+        <v>575.9802817071726</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6867783927972</v>
+        <v>481.6867783927977</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939935</v>
+        <v>406.2128185939939</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251324</v>
+        <v>332.9424046251328</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407542</v>
+        <v>260.6951367407544</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290051</v>
+        <v>167.6349797290053</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039497</v>
+        <v>96.06047256039506</v>
       </c>
       <c r="I25" t="n">
         <v>73.37747499227238</v>
@@ -6175,22 +6175,22 @@
         <v>1801.92892446</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.759324014971</v>
+        <v>1591.759324014972</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.299136754146</v>
+        <v>1377.299136754147</v>
       </c>
       <c r="V25" t="n">
         <v>1197.257328161792</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4828377383631</v>
+        <v>982.4828377383639</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1359664538777</v>
+        <v>829.1359664538785</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9860669238797</v>
+        <v>682.9860669238803</v>
       </c>
     </row>
     <row r="26">
@@ -6239,13 +6239,13 @@
         <v>2456.09431497013</v>
       </c>
       <c r="O26" t="n">
-        <v>2959.066785849467</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P26" t="n">
-        <v>3672.421873296413</v>
+        <v>3730.833331656763</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3979.119693412445</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6257,10 +6257,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973143</v>
@@ -6391,7 +6391,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,13 +6403,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
@@ -6443,16 +6443,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,31 +6461,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2580.208754682581</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.181225561918</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3477.955591919096</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q29" t="n">
-        <v>3936.433794428084</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6500,13 +6500,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899657</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257033</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913836</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415465</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973144</v>
@@ -6646,25 +6646,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6686,55 +6686,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
         <v>1711.594658697161</v>
@@ -6923,7 +6923,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6953,7 +6953,7 @@
         <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
         <v>3933.269522603402</v>
@@ -6971,13 +6971,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
         <v>2372.257749805548</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,22 +7172,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.699547878784</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127192</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799117</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.044482857899</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737236</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P38" t="n">
         <v>3474.791320094414</v>
@@ -7199,7 +7199,7 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T38" t="n">
         <v>3835.976694641921</v>
@@ -7336,10 +7336,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7388,52 +7388,52 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O41" t="n">
-        <v>2826.495488321721</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P41" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
@@ -7445,16 +7445,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698006</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7594,25 +7594,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7634,55 +7634,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.445018788609</v>
+        <v>164.4450187886093</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592906</v>
+        <v>195.2094266592911</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419189</v>
+        <v>204.9000484419195</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526776</v>
+        <v>196.0014531526782</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740267</v>
+        <v>194.5125490740274</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201052</v>
+        <v>197.1426452201059</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561907</v>
+        <v>203.1061824561912</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567226</v>
+        <v>201.183624456723</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485205</v>
+        <v>116.9502528485207</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814158</v>
+        <v>120.9423422814161</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981497</v>
+        <v>115.8314587981501</v>
       </c>
       <c r="M9" t="n">
-        <v>115.617456907288</v>
+        <v>115.6174569072885</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775605</v>
+        <v>104.123320177561</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951442</v>
+        <v>117.6967333951446</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175961</v>
+        <v>113.9903546175965</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213389</v>
+        <v>126.6229640213392</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.840546321879</v>
+        <v>121.8405463218792</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274368</v>
+        <v>125.172577827437</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466753</v>
+        <v>114.2593588466756</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419909</v>
+        <v>126.0552829419911</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773783</v>
+        <v>127.1165875773785</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>18.00186702483956</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.65516262515752</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>12.68816924374491</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>19.40311602546478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>167.736966642836</v>
       </c>
       <c r="R29" t="n">
-        <v>62.52018570663689</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q35" t="n">
-        <v>167.736966642836</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>277.2206841544135</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>122.1718867553229</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>21.1383958559137</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085646</v>
+        <v>15.10714246085647</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722034</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>85.41114236333367</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>75.85457384492452</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937168</v>
+        <v>82.26664558937173</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8311422713308</v>
       </c>
       <c r="W11" t="n">
         <v>322.3198525186089</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.512846447765</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17.25621354546019</v>
       </c>
       <c r="G13" t="n">
-        <v>98.98916143853937</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43130421103399</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6278330773651</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6018821377868</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7619254218788</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412179</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26664558937168</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>55.75668736753242</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0740557600978</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W14" t="n">
-        <v>282.5813559617613</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9108639831331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>20.02462882704963</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068087</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.788539190233</v>
+        <v>133.5294888876678</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6635371532906</v>
       </c>
     </row>
     <row r="17">
@@ -23729,16 +23729,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.66190479630404</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536108</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>25.00442649505013</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536108</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>57.69382784989989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24029,10 +24029,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X20" t="n">
-        <v>41.66190479630438</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1250589.960207229</v>
+        <v>1250589.960207228</v>
       </c>
     </row>
     <row r="6">
@@ -26317,22 +26317,22 @@
         <v>40963.87571765821</v>
       </c>
       <c r="D2" t="n">
-        <v>40964.59540416795</v>
+        <v>40964.59540416793</v>
       </c>
       <c r="E2" t="n">
-        <v>36477.0856706476</v>
+        <v>36477.08567064758</v>
       </c>
       <c r="F2" t="n">
-        <v>36477.0856706476</v>
+        <v>36477.08567064762</v>
       </c>
       <c r="G2" t="n">
-        <v>39726.59508908951</v>
+        <v>39726.5950890895</v>
       </c>
       <c r="H2" t="n">
-        <v>39726.59508908945</v>
+        <v>39726.59508908948</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321416</v>
@@ -26341,7 +26341,7 @@
         <v>41052.08849321416</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321417</v>
@@ -26350,10 +26350,10 @@
         <v>41052.08849321418</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.8501593638</v>
+        <v>38521.85015936302</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015502</v>
+        <v>1106215.961015503</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.109294874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487399</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26421,22 +26421,22 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343055</v>
+        <v>422862.8573343058</v>
       </c>
       <c r="E4" t="n">
+        <v>38195.3098855474</v>
+      </c>
+      <c r="F4" t="n">
         <v>38195.30988554745</v>
       </c>
-      <c r="F4" t="n">
-        <v>38195.30988554746</v>
-      </c>
       <c r="G4" t="n">
-        <v>75223.10714400184</v>
+        <v>75223.10714400178</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400183</v>
+        <v>75223.10714400178</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.13279157186</v>
+        <v>86759.1327915718</v>
       </c>
       <c r="J4" t="n">
         <v>82806.76150409839</v>
@@ -26445,19 +26445,19 @@
         <v>82806.76150409839</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="M4" t="n">
         <v>82806.76150409838</v>
       </c>
       <c r="N4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409841</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409838</v>
+        <v>82806.76150409842</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058921</v>
+        <v>34688.26308058919</v>
       </c>
       <c r="E5" t="n">
         <v>76569.57187911056</v>
@@ -26485,16 +26485,16 @@
         <v>80518.72463949902</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949902</v>
+        <v>80518.72463949901</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516664</v>
+        <v>85736.39714516663</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-428937.6627833962</v>
+        <v>-428942.0763612643</v>
       </c>
       <c r="C6" t="n">
-        <v>-431330.2823443955</v>
+        <v>-431334.6929831733</v>
       </c>
       <c r="D6" t="n">
-        <v>-455108.3751700906</v>
+        <v>-455112.7498245424</v>
       </c>
       <c r="E6" t="n">
-        <v>-1184503.757109513</v>
+        <v>-1184732.507250642</v>
       </c>
       <c r="F6" t="n">
-        <v>-78287.79609401041</v>
+        <v>-78516.54623513873</v>
       </c>
       <c r="G6" t="n">
-        <v>-153595.3459892854</v>
+        <v>-153661.6206594916</v>
       </c>
       <c r="H6" t="n">
-        <v>-116015.2366944114</v>
+        <v>-116081.5113646175</v>
       </c>
       <c r="I6" t="n">
-        <v>-154263.9791142421</v>
+        <v>-154263.979114242</v>
       </c>
       <c r="J6" t="n">
         <v>-156542.9629061806</v>
       </c>
       <c r="K6" t="n">
-        <v>-131132.6146856903</v>
+        <v>-131132.6146856904</v>
       </c>
       <c r="L6" t="n">
-        <v>-168712.7239805644</v>
+        <v>-168712.7239805643</v>
       </c>
       <c r="M6" t="n">
-        <v>-338321.1829777632</v>
+        <v>-338321.1829777633</v>
       </c>
       <c r="N6" t="n">
         <v>-131132.6146856903</v>
       </c>
       <c r="O6" t="n">
-        <v>-131132.6146856903</v>
+        <v>-131132.6146856904</v>
       </c>
       <c r="P6" t="n">
-        <v>-131132.6146856903</v>
+        <v>-131132.6146856904</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F2" t="n">
         <v>26.92111619880416</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179881</v>
+        <v>48.6542697517979</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,13 +26796,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26817,7 +26817,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855649</v>
+        <v>44.98040685855558</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841499</v>
+        <v>1041.1224308415</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661365</v>
+        <v>337.4716642661366</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403306</v>
+        <v>202.9352112403308</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128223</v>
+        <v>137.5825701128225</v>
       </c>
       <c r="S8" t="n">
-        <v>204.562947286872</v>
+        <v>204.5629472868721</v>
       </c>
       <c r="T8" t="n">
         <v>222.2396322140268</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.793462874513</v>
+        <v>85.79346287451307</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805385</v>
+        <v>93.66019412805397</v>
       </c>
       <c r="S9" t="n">
         <v>169.73929532649</v>
@@ -28029,13 +28029,13 @@
         <v>161.4471089694517</v>
       </c>
       <c r="I10" t="n">
-        <v>152.8119778069476</v>
+        <v>152.8119778069477</v>
       </c>
       <c r="J10" t="n">
-        <v>87.1561595288082</v>
+        <v>87.15615952880832</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739124</v>
+        <v>12.07602350739143</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917277</v>
+        <v>78.8152485191729</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723761</v>
+        <v>173.3484074723762</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891985</v>
+        <v>222.4875777891986</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
     </row>
     <row r="14">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739677</v>
+        <v>11.48104483559169</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T19" t="n">
-        <v>11.48104483558947</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G22" t="n">
-        <v>11.48104483559032</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739673</v>
+        <v>11.48104483559155</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T25" t="n">
-        <v>11.48104483559015</v>
+        <v>11.48104483559129</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29946,7 +29946,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
         <v>46.97513661859255</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859159</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.195595054278588</v>
+        <v>0.1955950542785844</v>
       </c>
       <c r="H8" t="n">
-        <v>2.00313784963059</v>
+        <v>2.003137849630553</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075272</v>
+        <v>7.540678330075131</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807732</v>
+        <v>16.60088573807701</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568996</v>
+        <v>24.88042438568949</v>
       </c>
       <c r="L8" t="n">
-        <v>30.8663665280683</v>
+        <v>30.86636652806773</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459514</v>
+        <v>34.3447800745945</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256419</v>
+        <v>34.90051452256353</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158148</v>
+        <v>32.95556620158086</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907883</v>
+        <v>28.1268132990783</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772689</v>
+        <v>21.12206541772649</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832737</v>
+        <v>12.28654782832714</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373329</v>
+        <v>4.457122299373245</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045195</v>
+        <v>0.8562173501045035</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228704</v>
+        <v>0.01564760434228675</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208503</v>
+        <v>0.1046525802208483</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711896</v>
+        <v>1.010723603711877</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976902082</v>
+        <v>3.603169976902015</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818146211</v>
+        <v>9.887373818146026</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294318</v>
+        <v>16.89909669294286</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172453</v>
+        <v>22.7229209817241</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701473035</v>
+        <v>26.51657701472985</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577281</v>
+        <v>27.2183919057723</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104930028</v>
+        <v>24.89951104929982</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673412</v>
+        <v>19.98405279673375</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468257</v>
+        <v>13.35881006468232</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589285</v>
+        <v>6.497640024589163</v>
       </c>
       <c r="S9" t="n">
-        <v>1.94387577734781</v>
+        <v>1.943875777347773</v>
       </c>
       <c r="T9" t="n">
-        <v>0.421823338697199</v>
+        <v>0.4218233386971911</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424363</v>
+        <v>0.006885038172424234</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914538</v>
+        <v>0.08773720774914374</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878568</v>
+        <v>0.7800635379878422</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310664</v>
+        <v>2.638497120310614</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864578</v>
+        <v>6.203020587864462</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849162</v>
+        <v>10.19346831849142</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935931</v>
+        <v>13.04412995935906</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016831</v>
+        <v>13.75320612016805</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855787</v>
+        <v>13.42618561855761</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985194</v>
+        <v>12.4012555098517</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176936</v>
+        <v>10.61141647176916</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521619</v>
+        <v>7.346794732521483</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793391</v>
+        <v>3.944983904793317</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773742</v>
+        <v>1.529020247773714</v>
       </c>
       <c r="T10" t="n">
-        <v>0.374877160382712</v>
+        <v>0.374877160382705</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226117</v>
+        <v>0.004785665877226028</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187038</v>
+        <v>72.49953281187032</v>
       </c>
       <c r="K13" t="n">
         <v>232.9687757431237</v>
@@ -35574,7 +35574,7 @@
         <v>346.6784883690023</v>
       </c>
       <c r="M13" t="n">
-        <v>374.554495592288</v>
+        <v>374.5544955922879</v>
       </c>
       <c r="N13" t="n">
         <v>371.7780623663442</v>
@@ -35583,7 +35583,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8781873439146</v>
+        <v>261.8781873439145</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3153547366978</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187035</v>
+        <v>72.49953281187038</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431237</v>
@@ -35811,7 +35811,7 @@
         <v>346.6784883690023</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5544955922879</v>
+        <v>374.554495592288</v>
       </c>
       <c r="N16" t="n">
         <v>371.7780623663442</v>
@@ -35820,7 +35820,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8781873439145</v>
+        <v>261.8781873439146</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3153547366978</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>355.1931535802401</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36373,7 +36373,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>414.4171488445294</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>263.4824740474644</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>79.01631456768956</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>418.5312714465555</v>
       </c>
       <c r="R29" t="n">
-        <v>122.1333842488617</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37075,22 +37075,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37321,10 +37321,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q35" t="n">
-        <v>418.5312714465555</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>614.411970709814</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37558,7 +37558,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>520.9338729746947</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>529.1913967441328</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38032,7 +38032,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120754</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861327</v>
